--- a/ocms/src/test/resources/TestData/OCMThresholdReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMThresholdReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4FF4D-ADB3-4119-A25D-0F9CFB73AE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,6 @@
     <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q35"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t>Report Channel</t>
   </si>
@@ -47,9 +52,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>OCM Threshold Report</t>
   </si>
   <si>
@@ -80,9 +82,6 @@
     <t>Is equal to</t>
   </si>
   <si>
-    <t>Palak garg</t>
-  </si>
-  <si>
     <t>Is  not equal to</t>
   </si>
   <si>
@@ -95,9 +94,6 @@
     <t xml:space="preserve">Starts with </t>
   </si>
   <si>
-    <t>chatbot</t>
-  </si>
-  <si>
     <t>Palak Garg</t>
   </si>
   <si>
@@ -108,15 +104,75 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>11-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>30-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>xm.f,gfk mvmbngkbfklgs</t>
+  </si>
+  <si>
+    <t>26-10-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>SELECT [AgentName] as [Agent Name],[StationId] as [Station ID],[AgentLoginID] as [Agent Login Id],
+[TeamName] as [Team Name],[OldStatus] as [Old Status],[NewStatus] as[New Status],
+[OldStatusTimeSpend] as [Old Status Time Spend],[NotificationType] as [Notification Type],
+[Threshold],[ChangedType] as [Changed Type], [ChangedBy] as [Changed By],
+FORMAT([InsertedDateTime],'dd/MM/yyyy HH:mm:ss') AS [Inserted Date Time] 
+FROM [dbo].[TDM_Alerts] WITH(NOLOCK) WHERE [InsertedDateTime]&gt;='ReportBeforeDate' 
+AND [InsertedDateTime]&lt;='ReportAfterDate' ORDER BY [Old Status Time Spend] ASC;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="OCMFont"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -143,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -155,8 +211,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,255 +504,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.5">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:4" ht="15.5">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>22</v>
+      <c r="H5" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -693,54 +822,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="36.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -749,47 +878,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -798,54 +927,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -854,77 +982,97 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>23</v>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -933,21 +1081,61 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="6" max="6" width="64.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="203">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
